--- a/gameData/shared/Vip.xlsx
+++ b/gameData/shared/Vip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="2080" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5320" yWindow="1560" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="22" r:id="rId1"/>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1">
         <v>300</v>
@@ -1327,7 +1327,7 @@
         <v>600</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -1386,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C7" s="1">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="D7" s="1">
         <v>25</v>
@@ -1448,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="C8" s="1">
-        <v>2100</v>
+        <v>8000</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -1510,10 +1510,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2100</v>
+        <v>8000</v>
       </c>
       <c r="C9" s="1">
-        <v>2800</v>
+        <v>20000</v>
       </c>
       <c r="D9" s="1">
         <v>35</v>
@@ -1572,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>2800</v>
+        <v>20000</v>
       </c>
       <c r="C10" s="1">
-        <v>3600</v>
+        <v>50000</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -1634,10 +1634,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3600</v>
+        <v>50000</v>
       </c>
       <c r="C11" s="1">
-        <v>4500</v>
+        <v>100000</v>
       </c>
       <c r="D11" s="1">
         <v>45</v>
@@ -1696,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>4500</v>
+        <v>100000</v>
       </c>
       <c r="C12" s="1">
-        <v>10000</v>
+        <v>9999999</v>
       </c>
       <c r="D12" s="1">
         <v>60</v>
@@ -1770,7 +1770,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/Vip.xlsx
+++ b/gameData/shared/Vip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1560" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4340" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="22" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1138,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1">
         <v>300</v>

--- a/gameData/shared/Vip.xlsx
+++ b/gameData/shared/Vip.xlsx
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="150">
+  <cellStyleXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -298,6 +298,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -457,7 +471,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="150">
+  <cellStyles count="164">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -535,6 +549,13 @@
     <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -605,6 +626,13 @@
     <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1056,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1383,7 +1411,7 @@
         <v>750</v>
       </c>
       <c r="C6" s="1">
-        <v>1079</v>
+        <v>2699</v>
       </c>
       <c r="D6" s="1">
         <v>13</v>
@@ -1442,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1080</v>
+        <v>2700</v>
       </c>
       <c r="C7" s="1">
-        <v>1999</v>
+        <v>5999</v>
       </c>
       <c r="D7" s="1">
         <v>15</v>
@@ -1504,10 +1532,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="C8" s="1">
-        <v>5999</v>
+        <v>20999</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -1566,10 +1594,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="C9" s="1">
-        <v>19999</v>
+        <v>79999</v>
       </c>
       <c r="D9" s="1">
         <v>25</v>
@@ -1628,10 +1656,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="C10" s="1">
-        <v>49999</v>
+        <v>224999</v>
       </c>
       <c r="D10" s="1">
         <v>30</v>
@@ -1690,10 +1718,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>50000</v>
+        <v>225000</v>
       </c>
       <c r="C11" s="1">
-        <v>99999</v>
+        <v>499999</v>
       </c>
       <c r="D11" s="1">
         <v>35</v>
@@ -1752,10 +1780,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="C12" s="1">
-        <v>9999999</v>
+        <v>999999999</v>
       </c>
       <c r="D12" s="1">
         <v>40</v>
@@ -1825,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
